--- a/webScrapping/espn_scrapper/IPL/Delhi Capitals/Jofra Archer.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Delhi Capitals/Jofra Archer.xlsx
@@ -439,13 +439,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 14 2020</v>
+        <v xml:space="preserve"> Oct 9 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C2" t="str">
-        <v>Capitals won by 13 runs</v>
+        <v>Capitals won by 46 runs</v>
       </c>
       <c r="D2" t="str">
         <v>Delhi Capitals</v>
@@ -457,7 +457,7 @@
         <v>Jofra Archer</v>
       </c>
       <c r="G2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="str">
         <v>4</v>
@@ -469,18 +469,18 @@
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>25.00</v>
+        <v>50.00</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 9 2020</v>
+        <v xml:space="preserve"> Oct 14 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C3" t="str">
-        <v>Capitals won by 46 runs</v>
+        <v>Capitals won by 13 runs</v>
       </c>
       <c r="D3" t="str">
         <v>Delhi Capitals</v>
@@ -492,7 +492,7 @@
         <v>Jofra Archer</v>
       </c>
       <c r="G3" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="str">
         <v>4</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>50.00</v>
+        <v>25.00</v>
       </c>
     </row>
   </sheetData>
